--- a/ApiGateway/ApiGatewayExpedientes/public/formato_personas (1).xlsx.xlsx
+++ b/ApiGateway/ApiGatewayExpedientes/public/formato_personas (1).xlsx.xlsx
@@ -1,36 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D753A8-578F-406B-8BBB-33DB599F1748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="20000" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Administrativos" sheetId="1" r:id="rId1"/>
-    <sheet name="Docentes-Conciliadores" sheetId="2" r:id="rId2"/>
-    <sheet name="Estudiantes" sheetId="3" r:id="rId3"/>
+    <sheet sheetId="1" name="Administrativos" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Docentes-Conciliadores" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Estudiantes" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>Nombres</t>
   </si>
@@ -49,35 +35,24 @@
   <si>
     <t>Tarjeta_Profesinal</t>
   </si>
-  <si>
-    <t>correo@correo.com</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <color rgb="FFFFFF"/>
+      <family val="4"/>
       <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
       <name val="FrankRuehl"/>
-      <family val="4"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -89,20 +64,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00913D"/>
-        <bgColor rgb="FF00913D"/>
+        <fgColor rgb="00913D"/>
+        <bgColor rgb="00913D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00460F"/>
-        <bgColor rgb="FF00460F"/>
+        <fgColor rgb="00460F"/>
+        <bgColor rgb="00460F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5C9E31"/>
-        <bgColor rgb="FF5C9E31"/>
+        <fgColor rgb="5C9E31"/>
+        <bgColor rgb="5C9E31"/>
       </patternFill>
     </fill>
   </fills>
@@ -115,26 +90,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -149,108 +115,29 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFB7DEE8"/>
+          <bgColor rgb="B7DEE8"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFB7DEE8"/>
+          <bgColor rgb="B7DEE8"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFB7DEE8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFB7DEE8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFB7DEE8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFB7DEE8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFB7DEE8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFB7DEE8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFB7DEE8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFB7DEE8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFB7DEE8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFB7DEE8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFB7DEE8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFB7DEE8"/>
+          <bgColor rgb="B7DEE8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -588,25 +475,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF00913D"/>
+    <tabColor rgb="00913D"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="20.64" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.64" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.64" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -623,63 +510,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>123456723</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3002156987</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:E41">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
-      <formula>LEN(TRIM(A3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:E2">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A2:E41">
+    <cfRule type="containsBlanks" dxfId="0" priority="1" operator="containsBlanks">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{F5B2B20B-E462-48A7-A010-EDD077603BC7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF00460F"/>
+    <tabColor rgb="00460F"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="A2:F2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="20.64" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.64" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.64" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.64" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -697,83 +559,39 @@
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3002156987</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>123456788</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3002156987</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E41">
-    <cfRule type="containsBlanks" dxfId="12" priority="1">
+    <cfRule type="containsBlanks" dxfId="1" priority="1" operator="containsBlanks">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{2F63A68F-A320-49FD-8E9F-AD12ECB788B0}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{C3B2029A-F965-4983-9F6A-9182C4A01427}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF5C9E31"/>
+    <tabColor rgb="5C9E31"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="20.64" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.64" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.64" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -790,231 +608,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>123456774</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3002156987</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <f>C2+1</f>
-        <v>123456775</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3002156987</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" ref="C4:C10" si="0">C3+1</f>
-        <v>123456776</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3002156987</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" si="0"/>
-        <v>123456777</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3002156987</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>123456778</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3002156987</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>123456779</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3002156987</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>123456780</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3002156987</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>123456781</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3002156987</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>123456782</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3002156987</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A11:E41">
-    <cfRule type="containsBlanks" dxfId="11" priority="11">
-      <formula>LEN(TRIM(A11))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:E2">
-    <cfRule type="containsBlanks" dxfId="10" priority="10">
+  <conditionalFormatting sqref="A2:E41">
+    <cfRule type="containsBlanks" dxfId="2" priority="1" operator="containsBlanks">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:E3 C4:C10">
-    <cfRule type="containsBlanks" dxfId="8" priority="8">
-      <formula>LEN(TRIM(A3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4 D4:E4">
-    <cfRule type="containsBlanks" dxfId="7" priority="7">
-      <formula>LEN(TRIM(A4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5 D5:E5">
-    <cfRule type="containsBlanks" dxfId="6" priority="6">
-      <formula>LEN(TRIM(A5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:B6 D6:E6">
-    <cfRule type="containsBlanks" dxfId="5" priority="5">
-      <formula>LEN(TRIM(A6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B7 D7:E7">
-    <cfRule type="containsBlanks" dxfId="4" priority="4">
-      <formula>LEN(TRIM(A7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8 D8:E8">
-    <cfRule type="containsBlanks" dxfId="3" priority="3">
-      <formula>LEN(TRIM(A8))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:B9 D9:E9">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
-      <formula>LEN(TRIM(A9))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B10 D10:E10">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(A10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{12DC2B8F-FB48-4212-AB87-BBBCFBD0638F}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{6D9CDE43-7857-477E-A131-68837BA88FA2}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{590357E1-6F86-486C-91C5-4E3F4DB490C0}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{DA1B31D7-08B5-4A09-941A-15D13AEC261D}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{131ABF90-DA53-49DF-AC80-4F43A3FFC8D7}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{A50C7B3E-9D95-470A-B9DF-CB557C2DB46D}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{E26D6154-A97E-41C2-A425-53E394F3F50F}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{BE8F93B0-BCCC-46AC-8A0D-E72FD68AD70F}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{FADE277C-170F-4D77-A8C0-F802F7D86D6C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/ApiGateway/ApiGatewayExpedientes/public/formato_personas (1).xlsx.xlsx
+++ b/ApiGateway/ApiGatewayExpedientes/public/formato_personas (1).xlsx.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CAFA07-FD99-4DC9-9B41-6D7AE32190F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="20000" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Administrativos" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Docentes-Conciliadores" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Estudiantes" state="visible" r:id="rId6"/>
+    <sheet name="Administrativos" sheetId="1" r:id="rId1"/>
+    <sheet name="Docentes-Conciliadores" sheetId="2" r:id="rId2"/>
+    <sheet name="Estudiantes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
   <si>
     <t>Nombres</t>
   </si>
@@ -34,25 +35,42 @@
   </si>
   <si>
     <t>Tarjeta_Profesinal</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>Eduardo@ugc.co</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <color rgb="FFFFFF"/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="FrankRuehl"/>
       <family val="4"/>
-      <sz val="14"/>
-      <name val="FrankRuehl"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -64,20 +82,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00913D"/>
-        <bgColor rgb="00913D"/>
+        <fgColor rgb="FF00913D"/>
+        <bgColor rgb="FF00913D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00460F"/>
-        <bgColor rgb="00460F"/>
+        <fgColor rgb="FF00460F"/>
+        <bgColor rgb="FF00460F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="5C9E31"/>
-        <bgColor rgb="5C9E31"/>
+        <fgColor rgb="FF5C9E31"/>
+        <bgColor rgb="FF5C9E31"/>
       </patternFill>
     </fill>
   </fills>
@@ -90,17 +108,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -115,29 +142,31 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="B7DEE8"/>
+          <bgColor rgb="FFB7DEE8"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="B7DEE8"/>
+          <bgColor rgb="FFB7DEE8"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="B7DEE8"/>
+          <bgColor rgb="FFB7DEE8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -475,9 +504,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor rgb="00913D"/>
+    <tabColor rgb="FF00913D"/>
   </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -486,14 +515,14 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="20.64" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.64" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.64" style="1" customWidth="1"/>
+    <col min="1" max="2" width="20.6328125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -512,36 +541,36 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E41">
-    <cfRule type="containsBlanks" dxfId="0" priority="1" operator="containsBlanks">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
-    <tabColor rgb="00460F"/>
+    <tabColor rgb="FF00460F"/>
   </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="20.64" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.64" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.64" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.64" style="1" customWidth="1"/>
+    <col min="1" max="2" width="20.6328125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -563,35 +592,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E41">
-    <cfRule type="containsBlanks" dxfId="1" priority="1" operator="containsBlanks">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
-    <tabColor rgb="5C9E31"/>
+    <tabColor rgb="FF5C9E31"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="20.64" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.64" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.64" style="1" customWidth="1"/>
+    <col min="1" max="2" width="20.6328125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -606,15 +635,89 @@
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>183298398</v>
+      </c>
+      <c r="D2" s="1">
+        <v>32894438</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1832983989</v>
+      </c>
+      <c r="D3" s="1">
+        <v>32894438</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1832983910</v>
+      </c>
+      <c r="D4" s="1">
+        <v>32894438</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>183298311</v>
+      </c>
+      <c r="D5" s="1">
+        <v>32894438</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E41">
-    <cfRule type="containsBlanks" dxfId="2" priority="1" operator="containsBlanks">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{CCC68DE0-FEF4-4FA6-9CF2-33C5468FEBC7}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{4D361B4A-24B6-470C-8B5A-68D6F74AB24A}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{CE88E610-6DCD-4F25-B676-6699F3C46B3F}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{147405E3-5B41-43B2-81EF-7821F89301BF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>